--- a/xlsx/motor-6-throwdouble.xlsx
+++ b/xlsx/motor-6-throwdouble.xlsx
@@ -15,582 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>8.5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>5.15</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>5.75</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10.45</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>2.75</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>5.85</t>
-  </si>
-  <si>
-    <t>7.75</t>
-  </si>
-  <si>
-    <t>8.45</t>
-  </si>
-  <si>
-    <t>9.05</t>
-  </si>
-  <si>
-    <t>9.55</t>
-  </si>
-  <si>
-    <t>10.05</t>
-  </si>
-  <si>
-    <t>10.55</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>10.95</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>11.25</t>
-  </si>
-  <si>
-    <t>6.05</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>6.35</t>
-  </si>
-  <si>
-    <t>7.45</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>8.95</t>
-  </si>
-  <si>
-    <t>11.05</t>
-  </si>
-  <si>
-    <t>11.45</t>
-  </si>
-  <si>
-    <t>11.75</t>
-  </si>
-  <si>
-    <t>5.65</t>
-  </si>
-  <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>5.95</t>
-  </si>
-  <si>
-    <t>7.95</t>
-  </si>
-  <si>
-    <t>8.75</t>
-  </si>
-  <si>
-    <t>9.45</t>
-  </si>
-  <si>
-    <t>11.55</t>
-  </si>
-  <si>
-    <t>11.95</t>
-  </si>
-  <si>
-    <t>12.25</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>11.8</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>6.55</t>
-  </si>
-  <si>
-    <t>7.55</t>
-  </si>
-  <si>
-    <t>9.25</t>
-  </si>
-  <si>
-    <t>9.95</t>
-  </si>
-  <si>
-    <t>12.05</t>
-  </si>
-  <si>
-    <t>12.45</t>
-  </si>
-  <si>
-    <t>12.75</t>
-  </si>
-  <si>
-    <t>6.85</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>5.05</t>
-  </si>
-  <si>
-    <t>6.15</t>
-  </si>
-  <si>
-    <t>7.15</t>
-  </si>
-  <si>
-    <t>8.05</t>
-  </si>
-  <si>
-    <t>9.75</t>
-  </si>
-  <si>
-    <t>12.55</t>
-  </si>
-  <si>
-    <t>12.95</t>
-  </si>
-  <si>
-    <t>13.25</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>5.55</t>
-  </si>
-  <si>
-    <t>7.65</t>
-  </si>
-  <si>
-    <t>8.55</t>
-  </si>
-  <si>
-    <t>10.25</t>
-  </si>
-  <si>
-    <t>13.05</t>
-  </si>
-  <si>
-    <t>13.45</t>
-  </si>
-  <si>
-    <t>13.75</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>13.7</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>8.15</t>
-  </si>
-  <si>
-    <t>10.75</t>
-  </si>
-  <si>
-    <t>13.55</t>
-  </si>
-  <si>
-    <t>13.95</t>
-  </si>
-  <si>
-    <t>14.25</t>
-  </si>
-  <si>
-    <t>13.8</t>
-  </si>
-  <si>
-    <t>14.2</t>
-  </si>
-  <si>
-    <t>14.5</t>
+    <t>labda hátra</t>
   </si>
 </sst>
 </file>
@@ -624,13 +51,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -933,10 +382,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>7</v>
       </c>
@@ -984,987 +437,987 @@
       <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5.4</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
-        <v>73</v>
+      <c r="B3" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5.6</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O4" t="s">
-        <v>86</v>
+      <c r="B4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="O4" s="1">
+        <v>5.8</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="B5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="O5" s="1">
         <v>6</v>
-      </c>
-      <c r="M5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="M6" s="1">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>110</v>
-      </c>
-      <c r="O6" t="s">
-        <v>112</v>
+      <c r="N6" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6.2</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>7</v>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6.4</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N8" t="s">
-        <v>134</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
+      <c r="B8" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6.6</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" t="s">
-        <v>134</v>
-      </c>
-      <c r="M9" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>144</v>
+      <c r="B9" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6.8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="B10" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="I10" s="1">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" t="s">
-        <v>8</v>
+      <c r="J10" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="O10" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D11" s="1">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>160</v>
-      </c>
-      <c r="O11" t="s">
-        <v>91</v>
+      <c r="E11" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="L11" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s">
-        <v>160</v>
-      </c>
-      <c r="M12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" t="s">
-        <v>169</v>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="L12" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7.4</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" t="s">
-        <v>169</v>
-      </c>
-      <c r="N13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O13" t="s">
-        <v>35</v>
+      <c r="B13" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="O13" s="1">
+        <v>7.6</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C14" s="1">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" t="s">
-        <v>160</v>
-      </c>
-      <c r="K14" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" t="s">
-        <v>23</v>
+      <c r="D14" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="J14" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="N14" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>7.8</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="B15" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="I15" s="1">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="O15" s="1">
         <v>8</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" t="s">
-        <v>80</v>
+      <c r="B16" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="L16" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="M16" s="1">
+        <v>8</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" t="s">
-        <v>67</v>
+      <c r="C17" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="F17" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N17" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O17" s="1">
+        <v>8.4</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" t="s">
-        <v>37</v>
+      <c r="B18" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M18" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="N18" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>8.6</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19" t="s">
-        <v>25</v>
+      <c r="B19" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L19" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="M19" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="N19" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O19" s="1">
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" t="s">
-        <v>68</v>
-      </c>
-      <c r="O20" t="s">
-        <v>12</v>
+      <c r="B20" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>8</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N20" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="O20" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="B21" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="K21" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L21" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="M21" s="1">
         <v>9</v>
       </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21" t="s">
-        <v>13</v>
+      <c r="N21" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="O21" s="1">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" t="s">
-        <v>130</v>
-      </c>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" t="s">
-        <v>81</v>
-      </c>
-      <c r="K22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L22" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" t="s">
-        <v>69</v>
+      <c r="B22" s="1">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K22" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="L22" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N22" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O22" s="1">
+        <v>9.4</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2946,6 +2399,11 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="B2:O21">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2958,10 +2416,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1">
         <v>7</v>
       </c>
@@ -3009,987 +2471,987 @@
       <c r="A2">
         <v>0.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G2" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="J2" s="1">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="L2" s="1">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N2" s="1">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>13</v>
+      <c r="O2" s="1">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
+      <c r="B3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.35</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M3" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="O3" s="1">
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
+      <c r="B4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="O4" s="1">
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
+      <c r="B5" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.05</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.85</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="K5" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="M5" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="N5" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10.1</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>85</v>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M6" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10.4</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O7" t="s">
-        <v>95</v>
+      <c r="B7" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10</v>
+      </c>
+      <c r="N7" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10.7</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" t="s">
-        <v>100</v>
+      <c r="B8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J8" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L8" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M8" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="O8" s="1">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" t="s">
-        <v>105</v>
-      </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" t="s">
-        <v>109</v>
-      </c>
-      <c r="N9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" t="s">
-        <v>113</v>
+      <c r="B9" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="J9" s="1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="N9" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="O9" s="1">
+        <v>11.25</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" t="s">
-        <v>116</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" t="s">
-        <v>118</v>
+      <c r="B10" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K10" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="N10" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>11.5</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J11" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" t="s">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" t="s">
-        <v>125</v>
-      </c>
-      <c r="N11" t="s">
-        <v>126</v>
-      </c>
-      <c r="O11" t="s">
-        <v>127</v>
+      <c r="B11" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="F11" s="1">
+        <v>6.35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="H11" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="M11" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="N11" s="1">
+        <v>11.45</v>
+      </c>
+      <c r="O11" s="1">
+        <v>11.75</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.5</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s">
-        <v>131</v>
-      </c>
-      <c r="N12" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" t="s">
-        <v>133</v>
+      <c r="B12" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="I12" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J12" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="M12" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="O12" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" t="s">
-        <v>140</v>
-      </c>
-      <c r="N13" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" t="s">
-        <v>142</v>
+      <c r="B13" s="1">
+        <v>4.05</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="L13" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="M13" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="N13" s="1">
+        <v>11.95</v>
+      </c>
+      <c r="O13" s="1">
+        <v>12.25</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" t="s">
-        <v>131</v>
-      </c>
-      <c r="M14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N14" t="s">
-        <v>146</v>
-      </c>
-      <c r="O14" t="s">
-        <v>147</v>
+      <c r="B14" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="L14" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="N14" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>12.5</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H15" t="s">
-        <v>151</v>
-      </c>
-      <c r="I15" t="s">
-        <v>152</v>
-      </c>
-      <c r="J15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" t="s">
-        <v>153</v>
-      </c>
-      <c r="N15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O15" t="s">
-        <v>155</v>
+      <c r="B15" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.55</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="K15" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="L15" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="M15" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="N15" s="1">
+        <v>12.45</v>
+      </c>
+      <c r="O15" s="1">
+        <v>12.75</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" t="s">
-        <v>157</v>
-      </c>
-      <c r="N16" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" t="s">
-        <v>159</v>
+      <c r="B16" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="F16" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H16" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="K16" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="M16" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="N16" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" t="s">
-        <v>163</v>
-      </c>
-      <c r="F17" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" t="s">
-        <v>94</v>
-      </c>
-      <c r="J17" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" t="s">
-        <v>166</v>
-      </c>
-      <c r="N17" t="s">
-        <v>167</v>
-      </c>
-      <c r="O17" t="s">
-        <v>168</v>
+      <c r="B17" s="1">
+        <v>5.05</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5.15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="H17" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="I17" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="J17" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="K17" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="L17" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="M17" s="1">
+        <v>12.55</v>
+      </c>
+      <c r="N17" s="1">
+        <v>12.95</v>
+      </c>
+      <c r="O17" s="1">
+        <v>13.25</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" t="s">
-        <v>157</v>
-      </c>
-      <c r="M18" t="s">
-        <v>170</v>
-      </c>
-      <c r="N18" t="s">
-        <v>171</v>
-      </c>
-      <c r="O18" t="s">
-        <v>172</v>
+      <c r="B18" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G18" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="J18" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="L18" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="N18" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>13.5</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" t="s">
-        <v>176</v>
-      </c>
-      <c r="I19" t="s">
-        <v>111</v>
-      </c>
-      <c r="J19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" t="s">
-        <v>153</v>
-      </c>
-      <c r="L19" t="s">
-        <v>166</v>
-      </c>
-      <c r="M19" t="s">
-        <v>177</v>
-      </c>
-      <c r="N19" t="s">
-        <v>178</v>
-      </c>
-      <c r="O19" t="s">
-        <v>179</v>
+      <c r="B19" s="1">
+        <v>5.55</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.65</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G19" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10.25</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10.95</v>
+      </c>
+      <c r="J19" s="1">
+        <v>11.55</v>
+      </c>
+      <c r="K19" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="L19" s="1">
+        <v>12.55</v>
+      </c>
+      <c r="M19" s="1">
+        <v>13.05</v>
+      </c>
+      <c r="N19" s="1">
+        <v>13.45</v>
+      </c>
+      <c r="O19" s="1">
+        <v>13.75</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" t="s">
-        <v>117</v>
-      </c>
-      <c r="J20" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" t="s">
-        <v>181</v>
-      </c>
-      <c r="N20" t="s">
-        <v>182</v>
-      </c>
-      <c r="O20" t="s">
-        <v>183</v>
+      <c r="B20" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="K20" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="M20" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="N20" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="O20" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H21" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" t="s">
-        <v>153</v>
-      </c>
-      <c r="K21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" t="s">
-        <v>177</v>
-      </c>
-      <c r="M21" t="s">
-        <v>186</v>
-      </c>
-      <c r="N21" t="s">
-        <v>187</v>
-      </c>
-      <c r="O21" t="s">
-        <v>188</v>
+      <c r="B21" s="1">
+        <v>6.05</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.15</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="I21" s="1">
+        <v>11.45</v>
+      </c>
+      <c r="J21" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="K21" s="1">
+        <v>12.55</v>
+      </c>
+      <c r="L21" s="1">
+        <v>13.05</v>
+      </c>
+      <c r="M21" s="1">
+        <v>13.55</v>
+      </c>
+      <c r="N21" s="1">
+        <v>13.95</v>
+      </c>
+      <c r="O21" s="1">
+        <v>14.25</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" t="s">
-        <v>157</v>
-      </c>
-      <c r="K22" t="s">
-        <v>170</v>
-      </c>
-      <c r="L22" t="s">
-        <v>181</v>
-      </c>
-      <c r="M22" t="s">
-        <v>189</v>
-      </c>
-      <c r="N22" t="s">
-        <v>190</v>
-      </c>
-      <c r="O22" t="s">
-        <v>191</v>
+      <c r="B22" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <v>11</v>
+      </c>
+      <c r="I22" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="J22" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="L22" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="N22" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>14.5</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4971,6 +4433,11 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <conditionalFormatting sqref="B2:O21">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xlsx/motor-6-throwdouble.xlsx
+++ b/xlsx/motor-6-throwdouble.xlsx
@@ -58,7 +58,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2399,9 +2419,14 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O21">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4433,9 +4458,14 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="B2:O21">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B2:O2">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:O22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+      <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/motor-6-throwdouble.xlsx
+++ b/xlsx/motor-6-throwdouble.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="12210"/>
+    <workbookView xWindow="2910" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="lányok" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -104,6 +144,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,46 +547,46 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1.2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>1.8</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>2.4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>2.9</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>3.4</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>3.9</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>4.3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>5.3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>5.4</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>5.5</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>5.6</v>
       </c>
     </row>
@@ -551,46 +594,46 @@
       <c r="A4">
         <v>1.5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1.4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>2.6</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>3.1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>3.6</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>4.5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>4.8</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>5.3</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>5.5</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>5.6</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>5.7</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>5.8</v>
       </c>
     </row>
@@ -598,46 +641,46 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1.6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>2.8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>3.3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>3.8</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>4.3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>4.7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>5.3</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>5.5</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>5.7</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>5.8</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>5.9</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>6</v>
       </c>
     </row>
@@ -645,46 +688,46 @@
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1.8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2.4</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>3.5</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>4.5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>5.2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>5.5</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>5.7</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>5.9</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>6</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>6.1</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>6.2</v>
       </c>
     </row>
@@ -692,46 +735,46 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>2.6</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>3.2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>3.7</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>4.2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>4.7</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>5.4</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>5.7</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>5.9</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>6.1</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>6.2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>6.3</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>6.4</v>
       </c>
     </row>
@@ -739,46 +782,46 @@
       <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2.8</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>3.4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>3.9</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>5.3</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>5.6</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>5.9</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>6.1</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>6.3</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>6.4</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>6.5</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>6.6</v>
       </c>
     </row>
@@ -786,46 +829,46 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>2.4</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>3.6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>5.5</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>5.8</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>6.1</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>6.3</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>6.5</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>6.6</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>6.7</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>6.8</v>
       </c>
     </row>
@@ -833,46 +876,46 @@
       <c r="A10">
         <v>4.5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>2.6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>3.2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>3.8</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>4.3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>4.8</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>5.3</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>5.7</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>6.3</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>6.5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>6.7</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>6.8</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>6.9</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>7</v>
       </c>
     </row>
@@ -880,46 +923,46 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>2.8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>3.4</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>4.5</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>5.5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>5.9</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>6.2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>6.5</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>6.7</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>6.9</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>7</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>7.1</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>7.2</v>
       </c>
     </row>
@@ -927,46 +970,46 @@
       <c r="A12">
         <v>5.5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>3.6</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>4.2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>4.7</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>5.2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>5.7</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>6.1</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>6.4</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>6.7</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>6.9</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>7.1</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>7.2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>7.3</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>7.4</v>
       </c>
     </row>
@@ -974,46 +1017,46 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>3.2</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>3.8</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>5.4</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>5.9</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>6.3</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>6.6</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>6.9</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>7.1</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>7.3</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>7.4</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>7.5</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>7.6</v>
       </c>
     </row>
@@ -1021,46 +1064,46 @@
       <c r="A14">
         <v>6.5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>3.4</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>5.6</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>6.1</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>6.5</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>6.8</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>7.1</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>7.3</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>7.5</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>7.6</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>7.7</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>7.8</v>
       </c>
     </row>
@@ -1068,46 +1111,46 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>3.6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>4.2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>4.8</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>5.3</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>5.8</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>6.3</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>6.7</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>7.3</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>7.5</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>7.7</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>7.8</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>7.9</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>8</v>
       </c>
     </row>
@@ -1115,46 +1158,46 @@
       <c r="A16">
         <v>7.5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>3.8</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>5.5</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>6</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>6.5</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>6.9</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>7.2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>7.5</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>7.7</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>7.9</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>8</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>8.1</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -1162,46 +1205,46 @@
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>5.2</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>5.7</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>6.2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>6.7</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>7.1</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>7.4</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>7.7</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>7.9</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>8.1</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>8.4</v>
       </c>
     </row>
@@ -1209,46 +1252,46 @@
       <c r="A18">
         <v>8.5</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>4.2</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>4.8</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>5.4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>5.9</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>6.4</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>6.9</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>7.3</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>7.6</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>7.9</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>8.1</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>8.4</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>8.5</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>8.6</v>
       </c>
     </row>
@@ -1256,46 +1299,46 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>5.6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>6.1</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>6.6</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>7.1</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>7.5</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>7.8</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>8.1</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>8.5</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>8.6</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -1303,46 +1346,46 @@
       <c r="A20">
         <v>9.5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>5.2</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>5.8</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>6.3</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>6.8</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>7.3</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>7.7</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>8</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>8.5</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>8.9</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>9</v>
       </c>
     </row>
@@ -1350,46 +1393,46 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>4.8</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>5.4</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>6.5</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>7</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>7.5</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>7.9</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>8.5</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>8.9</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>9</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>9.1</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>9.1999999999999993</v>
       </c>
     </row>
@@ -1397,46 +1440,46 @@
       <c r="A22">
         <v>10.5</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>5.6</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>6.2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>6.7</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>7.2</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>7.7</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>8.1</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>8.4</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>8.9</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>9.1</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>9.4</v>
       </c>
     </row>
@@ -2420,12 +2463,15 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:O2">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:O22">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2543,46 +2589,46 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1.25</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>1.35</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>2.35</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>3.35</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>4.25</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>5.15</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>6.7</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>7.3</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>7.8</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3">
         <v>9.5</v>
       </c>
     </row>
@@ -2590,46 +2636,46 @@
       <c r="A4">
         <v>1.5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>1.5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>1.7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>2.7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>3.6</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>4.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>5.4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>6.3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>7.6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>8.1</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>8.6</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>9.1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <v>9.6</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4">
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -2637,46 +2683,46 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>1.75</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>3.05</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>3.85</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>4.75</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>5.75</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>6.6</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>7.3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>7.9</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>8.4</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>8.9</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>9.4</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <v>9.9</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5">
         <v>10.1</v>
       </c>
     </row>
@@ -2684,46 +2730,46 @@
       <c r="A6">
         <v>2.5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>2.25</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>3.3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>6.9</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>7.6</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <v>10.199999999999999</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6">
         <v>10.4</v>
       </c>
     </row>
@@ -2731,46 +2777,46 @@
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2.25</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>2.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>3.6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>4.3499999999999996</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>5.25</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>6.3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>7.2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>7.9</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>8.5</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>9.5</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <v>10.45</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7">
         <v>10.7</v>
       </c>
     </row>
@@ -2778,46 +2824,46 @@
       <c r="A8">
         <v>3.5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>2.5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>2.75</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>3.9</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>5.5</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>6.6</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>7.5</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>10.3</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <v>10.7</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8">
         <v>11</v>
       </c>
     </row>
@@ -2825,46 +2871,46 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>2.8</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>4.8499999999999996</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>5.75</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>6.9</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>7.75</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>8.4499999999999993</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>9.0500000000000007</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>9.5500000000000007</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>10.050000000000001</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>10.55</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9">
         <v>10.95</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9">
         <v>11.25</v>
       </c>
     </row>
@@ -2872,46 +2918,46 @@
       <c r="A10">
         <v>4.5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>3.1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>3.3</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>6.05</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>7.2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
         <v>10.3</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>10.8</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10">
         <v>11.2</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10">
         <v>11.5</v>
       </c>
     </row>
@@ -2919,46 +2965,46 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>3.4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>3.6</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>4.6500000000000004</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>5.35</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>6.35</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>7.45</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>8.25</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>8.9499999999999993</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>9.5500000000000007</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>10.050000000000001</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11">
         <v>10.55</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>11.05</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <v>11.45</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>11.75</v>
       </c>
     </row>
@@ -2966,46 +3012,46 @@
       <c r="A12">
         <v>5.5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>3.7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>3.9</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>5.65</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>6.65</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>7.7</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>8.5</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>10.3</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12">
         <v>10.8</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>11.3</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <v>11.7</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>12</v>
       </c>
     </row>
@@ -3013,46 +3059,46 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>4.05</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>5.15</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>5.95</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>7</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>7.95</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>8.75</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>9.4499999999999993</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>10.050000000000001</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>10.55</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13">
         <v>11.05</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>11.55</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <v>11.95</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>12.25</v>
       </c>
     </row>
@@ -3060,46 +3106,46 @@
       <c r="A14">
         <v>6.5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>4.3</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>5.4</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>6.25</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>7.3</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>9</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>9.6999999999999993</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>10.3</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>10.8</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14">
         <v>11.3</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>11.8</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <v>12.2</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14">
         <v>12.5</v>
       </c>
     </row>
@@ -3107,46 +3153,46 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>4.55</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>5.65</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>6.55</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>7.55</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>8.4499999999999993</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>9.25</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>10.55</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>11.05</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15">
         <v>11.55</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>12.05</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <v>12.45</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>12.75</v>
       </c>
     </row>
@@ -3154,46 +3200,46 @@
       <c r="A16">
         <v>7.5</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>4.8</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>5.9</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>6.85</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
         <v>7.8</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>9.5</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>10.199999999999999</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>10.8</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>11.3</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16">
         <v>11.8</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>12.3</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <v>12.7</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>13</v>
       </c>
     </row>
@@ -3201,46 +3247,46 @@
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>5.05</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>5.15</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>6.15</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>7.15</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>8.0500000000000007</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>8.9499999999999993</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>9.75</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>10.45</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17">
         <v>11.05</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>11.55</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17">
         <v>12.05</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>12.55</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17">
         <v>12.95</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>13.25</v>
       </c>
     </row>
@@ -3248,46 +3294,46 @@
       <c r="A18">
         <v>8.5</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>5.3</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>5.4</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>6.4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>7.4</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>10</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>10.7</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18">
         <v>11.3</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>11.8</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18">
         <v>12.3</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>12.8</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18">
         <v>13.2</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>13.5</v>
       </c>
     </row>
@@ -3295,46 +3341,46 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>5.55</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>5.65</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>6.65</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>7.65</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>8.5500000000000007</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>9.4499999999999993</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>10.25</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>10.95</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19">
         <v>11.55</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>12.05</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19">
         <v>12.55</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>13.05</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19">
         <v>13.45</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>13.75</v>
       </c>
     </row>
@@ -3342,46 +3388,46 @@
       <c r="A20">
         <v>9.5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>5.8</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>5.9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>6.9</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>7.9</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>10.5</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>11.2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20">
         <v>11.8</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>12.3</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20">
         <v>12.8</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>13.3</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20">
         <v>13.7</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>14</v>
       </c>
     </row>
@@ -3389,46 +3435,46 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>6.05</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>6.15</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>7.15</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>8.15</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>9.0500000000000007</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>9.9499999999999993</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>10.75</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>11.45</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21">
         <v>12.05</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>12.55</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21">
         <v>13.05</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>13.55</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21">
         <v>13.95</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>14.25</v>
       </c>
     </row>
@@ -3436,46 +3482,46 @@
       <c r="A22">
         <v>10.5</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>6.3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>6.4</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>7.4</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>8.4</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>10.199999999999999</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>11</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>11.7</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22">
         <v>12.3</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>12.8</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22">
         <v>13.3</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>13.8</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22">
         <v>14.2</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>14.5</v>
       </c>
     </row>
@@ -4459,12 +4505,15 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="B2:O2">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>B3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:O22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThanOrEqual">
       <formula>B2</formula>
     </cfRule>
   </conditionalFormatting>
